--- a/sources/other/Bodhisattva-caryāvatāra - Dunhuang.xlsx
+++ b/sources/other/Bodhisattva-caryāvatāra - Dunhuang.xlsx
@@ -284,7 +284,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col hidden="1" min="1" max="3" width="14.43"/>
     <col customWidth="1" min="5" max="5" width="98.0"/>
   </cols>
   <sheetData>
